--- a/c5dec/assets/etr/etr-eval-checklist.xlsx
+++ b/c5dec/assets/etr/etr-eval-checklist.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arash/Development/alab/gitlab/cyfort/c5dec/cad/c5dec/assets/etr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD83D60-B1E2-D843-B44A-961E4BB16952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3765D216-36CB-BF48-96CF-539767C32AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19820" xr2:uid="{855CF1A9-BC9C-2843-A38D-E12A64695AEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{855CF1A9-BC9C-2843-A38D-E12A64695AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="WU" sheetId="4" r:id="rId1"/>
     <sheet name="AWI" sheetId="2" r:id="rId2"/>
     <sheet name="EvalOverview" sheetId="3" r:id="rId3"/>
+    <sheet name="EvalOverviewPP" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="102">
   <si>
     <t>Verdict</t>
   </si>
@@ -84,9 +107,6 @@
   <si>
     <t>Analysis not possible due to missing evidence.
 **Note**: This aspect could be checked by looking at the TOE devices.</t>
-  </si>
-  <si>
-    <t>Evaluation aspect</t>
   </si>
   <si>
     <t>Result</t>
@@ -173,9 +193,6 @@
   </si>
   <si>
     <t>ALC_CMC.1-1</t>
-  </si>
-  <si>
-    <t>inconclusive</t>
   </si>
   <si>
     <t>The evaluator shall check that the TOE references used are consistent.If the TOE is labelled more than once then the labels have to be consistent. For example, it should be possible to relate any labelled guidance documentation supplied as part of the TOE to the evaluated operational TOE. This ensures that consumers can be confident that they have purchased the evaluated version of the TOE, that they have installed this version, and that they have the correct version of the guidance to operate the TOE in accordance with its ST.The evaluator also verifies that the TOE reference is consistent with the ST.If this work unit is applied to a composed TOE, the following will apply. The composed IT TOE will not be labelled with its unique (composite) reference, but only the individual components will be labelled with their appropriate TOE reference. It would require further development for the IT TOE to be labelled, i.e. during start-up and/or operation, with the composite reference. If the composed TOE is delivered as the constituent component TOEs, then the TOE items delivered will not contain the composite reference. However, the composed TOE ST will include the unique reference for the composed TOE and will identify the components comprising the composed TOE through which the consumers will be able to determine whether they have the appropriate items.</t>
@@ -324,12 +341,60 @@
   <si>
     <t>8YEEDdCJBQXr89nD6SsjyhwWgqsf48-L0YlheQEwAaw=</t>
   </si>
+  <si>
+    <t>Evaluation work unit</t>
+  </si>
+  <si>
+    <t>Pass count</t>
+  </si>
+  <si>
+    <t>Fail count</t>
+  </si>
+  <si>
+    <t>Score (pass/total)</t>
+  </si>
+  <si>
+    <t>pass count</t>
+  </si>
+  <si>
+    <t>fail count</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Some category</t>
+  </si>
+  <si>
+    <t>Some evaluation object</t>
+  </si>
+  <si>
+    <t>Some description</t>
+  </si>
+  <si>
+    <t>Some required input</t>
+  </si>
+  <si>
+    <t>Some developer-provided input</t>
+  </si>
+  <si>
+    <t>Laboratory analysis</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +415,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,17 +450,31 @@
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -398,16 +485,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -471,6 +591,7 @@
         <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -491,6 +612,145 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -507,6 +767,182 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -526,12 +962,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78468114-045D-4E45-AADF-F104AD743F05}" name="Table3" displayName="Table3" ref="A1:S8" totalsRowShown="0">
-  <autoFilter ref="A1:S8" xr:uid="{78468114-045D-4E45-AADF-F104AD743F05}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78468114-045D-4E45-AADF-F104AD743F05}" name="WUTable" displayName="WUTable" ref="A1:V8" totalsRowShown="0">
+  <autoFilter ref="A1:V8" xr:uid="{78468114-045D-4E45-AADF-F104AD743F05}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{F5086411-9BF5-8143-9D48-F432E2E57B4E}" name="uid"/>
     <tableColumn id="2" xr3:uid="{608F221D-8995-7944-8438-6724AF85636B}" name="level"/>
-    <tableColumn id="3" xr3:uid="{1FDB023D-5BE3-9F48-A7A2-6FA71B235754}" name="text" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{1FDB023D-5BE3-9F48-A7A2-6FA71B235754}" name="text" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{BCAD0F48-DE5B-CC49-B3E9-13BF8185EDA4}" name="ref"/>
     <tableColumn id="5" xr3:uid="{C62F707B-6076-594D-B1A9-1AE9E23BA575}" name="links"/>
     <tableColumn id="6" xr3:uid="{B538E564-D6E6-144B-8F64-3ED1F8A77366}" name="active"/>
@@ -540,25 +976,93 @@
     <tableColumn id="9" xr3:uid="{F5AFA3B8-51A7-8F42-9D2C-570644C19688}" name="dc_element_description"/>
     <tableColumn id="10" xr3:uid="{166F2513-A6E4-D944-AE96-6B0CB8FDBD94}" name="derived"/>
     <tableColumn id="11" xr3:uid="{4697A5B0-C4D1-C946-B09E-90E3C65C7554}" name="element"/>
-    <tableColumn id="12" xr3:uid="{1A419825-6AB1-D745-B880-D30F14E43202}" name="element_description" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{1A419825-6AB1-D745-B880-D30F14E43202}" name="element_description" dataDxfId="33"/>
     <tableColumn id="13" xr3:uid="{4F9FACB4-B6CD-7346-BEE0-F942419E0BD7}" name="evaluation_date"/>
     <tableColumn id="14" xr3:uid="{5D1F953C-05F9-BE40-BAE3-1F2385336159}" name="evaluator"/>
     <tableColumn id="15" xr3:uid="{308B8DB2-E21B-7A42-AD1B-56BE092D29A9}" name="evidence"/>
     <tableColumn id="16" xr3:uid="{BF614A1F-E269-5B4D-A290-8DCC7C06CBBB}" name="header"/>
     <tableColumn id="17" xr3:uid="{7084D33E-9172-8144-9B9C-8DBC663D89DE}" name="normative"/>
     <tableColumn id="18" xr3:uid="{EA8705F3-BFFB-FC46-BDB4-673CDA8ECCF0}" name="reviewed"/>
-    <tableColumn id="19" xr3:uid="{D46A07C2-F807-944E-AB30-51F885A27D7F}" name="verdict"/>
+    <tableColumn id="19" xr3:uid="{D46A07C2-F807-944E-AB30-51F885A27D7F}" name="verdict" dataDxfId="32">
+      <calculatedColumnFormula array="1">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{743DA2BD-F73F-0342-9B26-F7D6B5C44DB7}" name="pass count" dataDxfId="31">
+      <calculatedColumnFormula array="1">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{60CC5649-E82B-2146-A0C3-57D84D6E5726}" name="fail count" dataDxfId="30">
+      <calculatedColumnFormula array="1">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{84A1FF6C-7401-A544-AB01-00767353821E}" name="score" dataDxfId="29">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C41146A0-3985-4045-BC87-DCFB57ACD144}" name="Table1" displayName="Table1" ref="A1:B2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:B2" xr:uid="{C41146A0-3985-4045-BC87-DCFB57ACD144}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A44911B8-9285-B547-95EB-9704FC6403FA}" name="Evaluation aspect" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{69A527A8-8095-B84F-94EA-7865AE78D3F2}" name="Result" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8128EC80-62BB-AC48-B7F8-BF0ACE0F35F5}" name="AWI_Table" displayName="AWI_Table" ref="A1:I8" totalsRowShown="0" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A1:I8" xr:uid="{8128EC80-62BB-AC48-B7F8-BF0ACE0F35F5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D35E3A7E-3D89-784E-B025-2860AD98F9F0}" name="header" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{C94AABB2-7C46-8B4D-B394-DA5025CCAE11}" name="AWI-ID" dataDxfId="25">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9AF773B5-3CD9-2744-B4B4-4BE71DC83073}" name="AWI-Cat" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{DAF87F07-1915-D840-AE2A-0545BBB5CE63}" name="AWI-EvalObj" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{3B36B54B-C778-FF42-8256-C7FA3207DBA8}" name="AWI-Descr" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{0EFA856B-B4B5-CD40-849C-981FF4AC921E}" name="RequiredInput" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{7C9CE458-CD64-2340-AB83-1BA3155B9F18}" name="DevInput" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{38C1AF1A-F0DA-1546-8D6C-FA049F0D7148}" name="Analysis" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D77041B5-A6F0-D04F-95CC-DEAF5E38CDB8}" name="Verdict" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C41146A0-3985-4045-BC87-DCFB57ACD144}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowCount="1" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:E8" xr:uid="{C41146A0-3985-4045-BC87-DCFB57ACD144}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A44911B8-9285-B547-95EB-9704FC6403FA}" name="Evaluation work unit" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14">
+      <calculatedColumnFormula>WUTable[[#This Row],[header]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{69A527A8-8095-B84F-94EA-7865AE78D3F2}" name="Result" dataDxfId="13" totalsRowDxfId="12">
+      <calculatedColumnFormula>WUTable[[#This Row],[verdict]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EFFB8DE0-7DAC-F84B-95E2-786847E78036}" name="Pass count" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+      <calculatedColumnFormula>WUTable[[#This Row],[pass count]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D2B92DEA-CEB5-A84B-9821-2B38E7C35CFE}" name="Fail count" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+      <calculatedColumnFormula>WUTable[[#This Row],[fail count]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{82969B4E-175C-4C4B-BA06-AFE577DF35C7}" name="Score (pass/total)" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>WUTable[[#This Row],[score]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{274A019C-D9E6-8F46-B375-0EE3438F7B6C}" name="Table4" displayName="Table4" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{274A019C-D9E6-8F46-B375-0EE3438F7B6C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7D3D832C-C7F4-6B4E-BDEF-2B25C804DEF1}" name="Evaluation work unit" totalsRowLabel="Total">
+      <calculatedColumnFormula>WUTable[[#This Row],[header]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{393DCC27-C507-E849-8847-C7A81720F9D9}" name="Result">
+      <calculatedColumnFormula>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E9A93690-FDB3-BC4F-8A5B-80F9866C52C1}" name="Pass count" totalsRowFunction="sum">
+      <calculatedColumnFormula>WUTable[[#This Row],[pass count]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{47E26462-19F9-A04B-8E4B-A18F8CEB7AE8}" name="Fail count" totalsRowFunction="sum">
+      <calculatedColumnFormula>WUTable[[#This Row],[fail count]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B6583AAF-3658-094D-82A9-DA9D680CA31B}" name="Score (pass/total)">
+      <calculatedColumnFormula>WUTable[[#This Row],[score]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B35C9-F7F0-C348-9587-CB79BEE78397}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,183 +1406,218 @@
     <col min="17" max="17" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="187" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="S2" t="str" cm="1">
+        <f t="array" ref="S2">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Inconclusive</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>0</v>
+      </c>
+      <c r="V2" t="str" cm="1">
+        <f t="array" ref="V2">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="289" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="289" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="S3" t="str" cm="1">
+        <f t="array" ref="S3">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Fail</v>
+      </c>
+      <c r="T3" cm="1">
+        <f t="array" ref="T3">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" cm="1">
+        <f t="array" ref="U3">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>1</v>
+      </c>
+      <c r="V3" t="str" cm="1">
+        <f t="array" ref="V3">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="187" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P4" t="s">
         <v>9</v>
@@ -1087,186 +1626,251 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="str" cm="1">
+        <f t="array" ref="S4">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Fail</v>
+      </c>
+      <c r="T4" cm="1">
+        <f t="array" ref="T4">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>0</v>
+      </c>
+      <c r="U4" cm="1">
+        <f t="array" ref="U4">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>1</v>
+      </c>
+      <c r="V4" t="str" cm="1">
+        <f t="array" ref="V4">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="340" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>61</v>
       </c>
-      <c r="S4" t="s">
+      <c r="L5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" t="str" cm="1">
+        <f t="array" ref="S5">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Pass</v>
+      </c>
+      <c r="T5" cm="1">
+        <f t="array" ref="T5">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>1</v>
+      </c>
+      <c r="U5" cm="1">
+        <f t="array" ref="U5">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>0</v>
+      </c>
+      <c r="V5" t="str" cm="1">
+        <f t="array" ref="V5">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>1/1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="356" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="340" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="str" cm="1">
+        <f t="array" ref="S6">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Fail</v>
+      </c>
+      <c r="T6" cm="1">
+        <f t="array" ref="T6">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>0</v>
+      </c>
+      <c r="U6" cm="1">
+        <f t="array" ref="U6">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>1</v>
+      </c>
+      <c r="V6" t="str" cm="1">
+        <f t="array" ref="V6">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="170" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="str" cm="1">
+        <f t="array" ref="S7">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Fail</v>
+      </c>
+      <c r="T7" cm="1">
+        <f t="array" ref="T7">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" cm="1">
+        <f t="array" ref="U7">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>1</v>
+      </c>
+      <c r="V7" t="str" cm="1">
+        <f t="array" ref="V7">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="187" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S5" t="s">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="356" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="170" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>83</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="187" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="P8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
+      <c r="S8" t="str" cm="1">
+        <f t="array" ref="S8">IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))=COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)),"Pass", IF(SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))&gt;=1, "Fail", "Inconclusive"))</f>
+        <v>Pass</v>
+      </c>
+      <c r="T8" cm="1">
+        <f t="array" ref="T8">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Pass"))</f>
+        <v>1</v>
+      </c>
+      <c r="U8" cm="1">
+        <f t="array" ref="U8">SUM(--(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9) = "Fail"))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" t="str" cm="1">
+        <f t="array" ref="V8">_xlfn.CONCAT(WUTable[[#This Row],[pass count]],"/",COUNTA(_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER(AWI_Table[],AWI_Table[header]=WUTable[[#This Row],[header]]),9)))</f>
+        <v>1/1</v>
       </c>
     </row>
   </sheetData>
@@ -1279,17 +1883,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D00311-B475-1941-A853-ED093A89F575}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1317,82 +1931,660 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B8" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="I2:I8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Inconclusive"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8" xr:uid="{F1E76C0F-6F10-5A43-86B8-FE9FDE418DAE}">
+      <formula1>"Pass,Fail,Inconclusive"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384FB6E-1360-4944-AB1A-91E1487D5C8D}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.1-1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Inconclusive</v>
+      </c>
+      <c r="C2" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.1-2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Fail</v>
+      </c>
+      <c r="C3" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.4-1</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Fail</v>
+      </c>
+      <c r="C4" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_DVS.1-2</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Pass</v>
+      </c>
+      <c r="C5" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>1/1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-10</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Fail</v>
+      </c>
+      <c r="C6" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-11</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Fail</v>
+      </c>
+      <c r="C7" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-12</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>WUTable[[#This Row],[verdict]]</f>
+        <v>Pass</v>
+      </c>
+      <c r="C8" s="2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>1/1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <f>SUBTOTAL(109,Table1[Pass count])</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUBTOTAL(109,Table1[Fail count])</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Pass"</formula>
+      <formula>"Inconclusive"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{F1E76C0F-6F10-5A43-86B8-FE9FDE418DAE}">
-      <formula1>"Pass,Fail,Inconclusive"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C384FB6E-1360-4944-AB1A-91E1487D5C8D}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5F9CC-74C7-0A49-8E5E-4D87BB5CEF37}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.1-1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\inclsv{Inconclusive}</v>
+      </c>
+      <c r="C2">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.1-2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\fail{Fail}</v>
+      </c>
+      <c r="C3">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_CMC.4-1</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\fail{Fail}</v>
+      </c>
+      <c r="C4">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>ALC_DVS.1-2</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\pass{Pass}</v>
+      </c>
+      <c r="C5">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>1/1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-10</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\fail{Fail}</v>
+      </c>
+      <c r="C6">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-11</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\fail{Fail}</v>
+      </c>
+      <c r="C7">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>0/1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>WUTable[[#This Row],[header]]</f>
+        <v>AVA_VAN.4-12</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(WUTable[[#This Row],[verdict]]="Pass",_xlfn.CONCAT("\pass{", WUTable[[#This Row],[verdict]], "}"), IF(WUTable[[#This Row],[verdict]]="Fail", _xlfn.CONCAT("\fail{", WUTable[[#This Row],[verdict]], "}"), _xlfn.CONCAT("\inclsv{", WUTable[[#This Row],[verdict]], "}")))</f>
+        <v>\pass{Pass}</v>
+      </c>
+      <c r="C8">
+        <f>WUTable[[#This Row],[pass count]]</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>WUTable[[#This Row],[fail count]]</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <f>WUTable[[#This Row],[score]]</f>
+        <v>1/1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <f>SUBTOTAL(109,Table4[Pass count])</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>SUBTOTAL(109,Table4[Fail count])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
